--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il21-Il21r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il21-Il21r.xlsx
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02492466666666667</v>
+        <v>0.02492466666666666</v>
       </c>
       <c r="H2">
-        <v>0.07477400000000001</v>
+        <v>0.07477399999999999</v>
       </c>
       <c r="I2">
-        <v>0.601686595748105</v>
+        <v>0.5549276228148621</v>
       </c>
       <c r="J2">
-        <v>0.6938037003358881</v>
+        <v>0.6515968803102261</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.404083</v>
+        <v>0.2687865</v>
       </c>
       <c r="N2">
-        <v>0.8081659999999999</v>
+        <v>0.537573</v>
       </c>
       <c r="O2">
-        <v>0.01380994184713846</v>
+        <v>0.01336253673722166</v>
       </c>
       <c r="P2">
-        <v>0.00927800140732607</v>
+        <v>0.008961926404151501</v>
       </c>
       <c r="Q2">
-        <v>0.01007163408066667</v>
+        <v>0.006699413916999999</v>
       </c>
       <c r="R2">
-        <v>0.060429804484</v>
+        <v>0.040196483502</v>
       </c>
       <c r="S2">
-        <v>0.008309256897484038</v>
+        <v>0.007415240746362681</v>
       </c>
       <c r="T2">
-        <v>0.006437111708124404</v>
+        <v>0.005839563286514961</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02492466666666667</v>
+        <v>0.02492466666666666</v>
       </c>
       <c r="H3">
-        <v>0.07477400000000001</v>
+        <v>0.07477399999999999</v>
       </c>
       <c r="I3">
-        <v>0.601686595748105</v>
+        <v>0.5549276228148621</v>
       </c>
       <c r="J3">
-        <v>0.6938037003358881</v>
+        <v>0.6515968803102261</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.836779</v>
       </c>
       <c r="O3">
-        <v>0.04370859028988439</v>
+        <v>0.06358094663744968</v>
       </c>
       <c r="P3">
-        <v>0.04404743698893435</v>
+        <v>0.06396327759577582</v>
       </c>
       <c r="Q3">
-        <v>0.03187681254955556</v>
+        <v>0.03187681254955555</v>
       </c>
       <c r="R3">
         <v>0.286891312946</v>
       </c>
       <c r="S3">
-        <v>0.02629887289646922</v>
+        <v>0.03528282357383854</v>
       </c>
       <c r="T3">
-        <v>0.03056027477323452</v>
+        <v>0.0416782721358245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02492466666666667</v>
+        <v>0.02492466666666666</v>
       </c>
       <c r="H4">
-        <v>0.07477400000000001</v>
+        <v>0.07477399999999999</v>
       </c>
       <c r="I4">
-        <v>0.601686595748105</v>
+        <v>0.5549276228148621</v>
       </c>
       <c r="J4">
-        <v>0.6938037003358881</v>
+        <v>0.6515968803102261</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.00391666666667</v>
+        <v>7.880035333333335</v>
       </c>
       <c r="N4">
-        <v>33.01175</v>
+        <v>23.640106</v>
       </c>
       <c r="O4">
-        <v>0.3760698897439991</v>
+        <v>0.3917505590209012</v>
       </c>
       <c r="P4">
-        <v>0.3789853358818565</v>
+        <v>0.394106270512731</v>
       </c>
       <c r="Q4">
-        <v>0.2742689549444445</v>
+        <v>0.1964072540048889</v>
       </c>
       <c r="R4">
-        <v>2.4684205945</v>
+        <v>1.767665286044</v>
       </c>
       <c r="S4">
-        <v>0.226276211723432</v>
+        <v>0.217393206453862</v>
       </c>
       <c r="T4">
-        <v>0.2629414284078714</v>
+        <v>0.2567984163767936</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02492466666666667</v>
+        <v>0.02492466666666666</v>
       </c>
       <c r="H5">
-        <v>0.07477400000000001</v>
+        <v>0.07477399999999999</v>
       </c>
       <c r="I5">
-        <v>0.601686595748105</v>
+        <v>0.5549276228148621</v>
       </c>
       <c r="J5">
-        <v>0.6938037003358881</v>
+        <v>0.6515968803102261</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.271195</v>
+        <v>0.0919155</v>
       </c>
       <c r="N5">
-        <v>0.54239</v>
+        <v>0.183831</v>
       </c>
       <c r="O5">
-        <v>0.00926836115163151</v>
+        <v>0.004569516123280365</v>
       </c>
       <c r="P5">
-        <v>0.006226808828037294</v>
+        <v>0.003064662646378398</v>
       </c>
       <c r="Q5">
-        <v>0.006759444976666668</v>
+        <v>0.002290963199</v>
       </c>
       <c r="R5">
-        <v>0.04055666986000001</v>
+        <v>0.013745779194</v>
       </c>
       <c r="S5">
-        <v>0.00557664866948915</v>
+        <v>0.002535750719706157</v>
       </c>
       <c r="T5">
-        <v>0.00432018300617645</v>
+        <v>0.001996924619583446</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02492466666666667</v>
+        <v>0.02492466666666666</v>
       </c>
       <c r="H6">
-        <v>0.07477400000000001</v>
+        <v>0.07477399999999999</v>
       </c>
       <c r="I6">
-        <v>0.601686595748105</v>
+        <v>0.5549276228148621</v>
       </c>
       <c r="J6">
-        <v>0.6938037003358881</v>
+        <v>0.6515968803102261</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.748468</v>
+        <v>2.558308333333333</v>
       </c>
       <c r="N6">
-        <v>2.245404</v>
+        <v>7.674925</v>
       </c>
       <c r="O6">
-        <v>0.02557964466321036</v>
+        <v>0.1271845464311154</v>
       </c>
       <c r="P6">
-        <v>0.02577794843140591</v>
+        <v>0.1279493445678679</v>
       </c>
       <c r="Q6">
-        <v>0.01865531541066667</v>
+        <v>0.06376498243888888</v>
       </c>
       <c r="R6">
-        <v>0.167897838696</v>
+        <v>0.57388484195</v>
       </c>
       <c r="S6">
-        <v>0.01539092931785322</v>
+        <v>0.07057821800980531</v>
       </c>
       <c r="T6">
-        <v>0.01788483600877713</v>
+        <v>0.08337139375816091</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02492466666666667</v>
+        <v>0.02492466666666666</v>
       </c>
       <c r="H7">
-        <v>0.07477400000000001</v>
+        <v>0.07477399999999999</v>
       </c>
       <c r="I7">
-        <v>0.601686595748105</v>
+        <v>0.5549276228148621</v>
       </c>
       <c r="J7">
-        <v>0.6938037003358881</v>
+        <v>0.6515968803102261</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.553708</v>
+        <v>8.036958666666665</v>
       </c>
       <c r="N7">
-        <v>46.66112399999999</v>
+        <v>24.110876</v>
       </c>
       <c r="O7">
-        <v>0.5315635723041361</v>
+        <v>0.3995518950500317</v>
       </c>
       <c r="P7">
-        <v>0.5356844684624399</v>
+        <v>0.4019545182730954</v>
       </c>
       <c r="Q7">
-        <v>0.3876709873306666</v>
+        <v>0.2003185157804444</v>
       </c>
       <c r="R7">
-        <v>3.489038885976</v>
+        <v>1.802866642024</v>
       </c>
       <c r="S7">
-        <v>0.3198346762433773</v>
+        <v>0.2217223833112874</v>
       </c>
       <c r="T7">
-        <v>0.3716598664317042</v>
+        <v>0.2619123101333487</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0165</v>
+        <v>0.0199905</v>
       </c>
       <c r="H8">
-        <v>0.033</v>
+        <v>0.039981</v>
       </c>
       <c r="I8">
-        <v>0.398313404251895</v>
+        <v>0.4450723771851379</v>
       </c>
       <c r="J8">
-        <v>0.3061962996641119</v>
+        <v>0.3484031196897739</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.404083</v>
+        <v>0.2687865</v>
       </c>
       <c r="N8">
-        <v>0.8081659999999999</v>
+        <v>0.537573</v>
       </c>
       <c r="O8">
-        <v>0.01380994184713846</v>
+        <v>0.01336253673722166</v>
       </c>
       <c r="P8">
-        <v>0.00927800140732607</v>
+        <v>0.008961926404151501</v>
       </c>
       <c r="Q8">
-        <v>0.0066673695</v>
+        <v>0.00537317652825</v>
       </c>
       <c r="R8">
-        <v>0.026669478</v>
+        <v>0.021492706113</v>
       </c>
       <c r="S8">
-        <v>0.005500684949654424</v>
+        <v>0.005947295990858983</v>
       </c>
       <c r="T8">
-        <v>0.002840889699201665</v>
+        <v>0.00312236311763654</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.0165</v>
+        <v>0.0199905</v>
       </c>
       <c r="H9">
-        <v>0.033</v>
+        <v>0.039981</v>
       </c>
       <c r="I9">
-        <v>0.398313404251895</v>
+        <v>0.4450723771851379</v>
       </c>
       <c r="J9">
-        <v>0.3061962996641119</v>
+        <v>0.3484031196897739</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>3.836779</v>
       </c>
       <c r="O9">
-        <v>0.04370859028988439</v>
+        <v>0.06358094663744968</v>
       </c>
       <c r="P9">
-        <v>0.04404743698893435</v>
+        <v>0.06396327759577582</v>
       </c>
       <c r="Q9">
-        <v>0.0211022845</v>
+        <v>0.0255663768665</v>
       </c>
       <c r="R9">
-        <v>0.126613707</v>
+        <v>0.153398261199</v>
       </c>
       <c r="S9">
-        <v>0.01740971739341518</v>
+        <v>0.02829812306361113</v>
       </c>
       <c r="T9">
-        <v>0.01348716221569983</v>
+        <v>0.02228500545995131</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0165</v>
+        <v>0.0199905</v>
       </c>
       <c r="H10">
-        <v>0.033</v>
+        <v>0.039981</v>
       </c>
       <c r="I10">
-        <v>0.398313404251895</v>
+        <v>0.4450723771851379</v>
       </c>
       <c r="J10">
-        <v>0.3061962996641119</v>
+        <v>0.3484031196897739</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.00391666666667</v>
+        <v>7.880035333333335</v>
       </c>
       <c r="N10">
-        <v>33.01175</v>
+        <v>23.640106</v>
       </c>
       <c r="O10">
-        <v>0.3760698897439991</v>
+        <v>0.3917505590209012</v>
       </c>
       <c r="P10">
-        <v>0.3789853358818565</v>
+        <v>0.394106270512731</v>
       </c>
       <c r="Q10">
-        <v>0.181564625</v>
+        <v>0.157525846331</v>
       </c>
       <c r="R10">
-        <v>1.08938775</v>
+        <v>0.9451550779860002</v>
       </c>
       <c r="S10">
-        <v>0.1497936780205671</v>
+        <v>0.1743573525670392</v>
       </c>
       <c r="T10">
-        <v>0.116043907473985</v>
+        <v>0.1373078541359374</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.0199905</v>
+      </c>
+      <c r="H11">
+        <v>0.039981</v>
+      </c>
+      <c r="I11">
+        <v>0.4450723771851379</v>
+      </c>
+      <c r="J11">
+        <v>0.3484031196897739</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.5</v>
       </c>
-      <c r="G11">
-        <v>0.0165</v>
-      </c>
-      <c r="H11">
-        <v>0.033</v>
-      </c>
-      <c r="I11">
-        <v>0.398313404251895</v>
-      </c>
-      <c r="J11">
-        <v>0.3061962996641119</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
-        <v>0.271195</v>
+        <v>0.0919155</v>
       </c>
       <c r="N11">
-        <v>0.54239</v>
+        <v>0.183831</v>
       </c>
       <c r="O11">
-        <v>0.00926836115163151</v>
+        <v>0.004569516123280365</v>
       </c>
       <c r="P11">
-        <v>0.006226808828037294</v>
+        <v>0.003064662646378398</v>
       </c>
       <c r="Q11">
-        <v>0.0044747175</v>
+        <v>0.00183743680275</v>
       </c>
       <c r="R11">
-        <v>0.01789887</v>
+        <v>0.007349747211000001</v>
       </c>
       <c r="S11">
-        <v>0.003691712482142361</v>
+        <v>0.002033765403574208</v>
       </c>
       <c r="T11">
-        <v>0.001906625821860845</v>
+        <v>0.001067738026794952</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0165</v>
+        <v>0.0199905</v>
       </c>
       <c r="H12">
-        <v>0.033</v>
+        <v>0.039981</v>
       </c>
       <c r="I12">
-        <v>0.398313404251895</v>
+        <v>0.4450723771851379</v>
       </c>
       <c r="J12">
-        <v>0.3061962996641119</v>
+        <v>0.3484031196897739</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.748468</v>
+        <v>2.558308333333333</v>
       </c>
       <c r="N12">
-        <v>2.245404</v>
+        <v>7.674925</v>
       </c>
       <c r="O12">
-        <v>0.02557964466321036</v>
+        <v>0.1271845464311154</v>
       </c>
       <c r="P12">
-        <v>0.02577794843140591</v>
+        <v>0.1279493445678679</v>
       </c>
       <c r="Q12">
-        <v>0.012349722</v>
+        <v>0.0511418627375</v>
       </c>
       <c r="R12">
-        <v>0.074098332</v>
+        <v>0.306851176425</v>
       </c>
       <c r="S12">
-        <v>0.01018871534535714</v>
+        <v>0.05660632842131007</v>
       </c>
       <c r="T12">
-        <v>0.007893112422628789</v>
+        <v>0.04457795080970701</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0165</v>
+        <v>0.0199905</v>
       </c>
       <c r="H13">
-        <v>0.033</v>
+        <v>0.039981</v>
       </c>
       <c r="I13">
-        <v>0.398313404251895</v>
+        <v>0.4450723771851379</v>
       </c>
       <c r="J13">
-        <v>0.3061962996641119</v>
+        <v>0.3484031196897739</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.553708</v>
+        <v>8.036958666666665</v>
       </c>
       <c r="N13">
-        <v>46.66112399999999</v>
+        <v>24.110876</v>
       </c>
       <c r="O13">
-        <v>0.5315635723041361</v>
+        <v>0.3995518950500317</v>
       </c>
       <c r="P13">
-        <v>0.5356844684624399</v>
+        <v>0.4019545182730954</v>
       </c>
       <c r="Q13">
-        <v>0.256636182</v>
+        <v>0.160662822226</v>
       </c>
       <c r="R13">
-        <v>1.539817092</v>
+        <v>0.963976933356</v>
       </c>
       <c r="S13">
-        <v>0.2117288960607588</v>
+        <v>0.1778295117387444</v>
       </c>
       <c r="T13">
-        <v>0.1640246020307358</v>
+        <v>0.1400422081397467</v>
       </c>
     </row>
   </sheetData>
